--- a/9_2_VLT_Variation/9_VL_RL_optimistisch/9_2_FBH_Einfluss_optmimistisch.xlsx
+++ b/9_2_VLT_Variation/9_VL_RL_optimistisch/9_2_FBH_Einfluss_optmimistisch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer-my.sharepoint.com/personal/lara_josephine_barnic_iee_fraunhofer_de/Documents/A_Bearbeitung/9_Parameterstudie_REP/9_2_VLT_Variation/9_VL_RL_35_30_ueberarbeiten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer-my.sharepoint.com/personal/lara_josephine_barnic_iee_fraunhofer_de/Documents/A_Bearbeitung/9_Parameterstudie_REP/9_2_VLT_Variation/9_VL_RL_optimistisch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{E194A4E9-0780-4D2C-85A2-5935A5786084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51D7F5E7-D6BD-4D34-9F00-AD3725EE668C}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{E194A4E9-0780-4D2C-85A2-5935A5786084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31E8685B-7EE8-4DCA-A5CA-3BA9B9F136DE}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-140" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{0F735A68-00BF-458F-A0D9-4A275F93B0FE}"/>
   </bookViews>
@@ -1572,6 +1572,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -3171,7 +3175,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
